--- a/Overview of Machine Models and their characteristics .xlsx
+++ b/Overview of Machine Models and their characteristics .xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF499FD-ECC2-4710-80D9-C464CB75DC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0687AA-6EB5-4231-AF2C-047A45095629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{834F1B6D-B2BB-4840-96D9-0FD1FD08577E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{834F1B6D-B2BB-4840-96D9-0FD1FD08577E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>Model Type</t>
   </si>
@@ -342,9 +343,6 @@
     <t>Used MAE as the metric and a 10 fold CV. Results were improved by feature enginneering</t>
   </si>
   <si>
-    <t>Schuh et al 2019  - predictions of order specific times</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vicente Garcia et al , 2019- Predicting product quality in a tubing extrusion process </t>
   </si>
   <si>
@@ -354,17 +352,122 @@
     <t>used weight functions. Metrics observed RMSE and MAE</t>
   </si>
   <si>
-    <t>using a muliple linear regression between more than one independent. Metrics observed RMSE and MAE</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Vicente Garcia et al , 2019- Predicting product quality in a tubing extrusion process. 2.Smola et al , 2003 - SVR tutorial  </t>
   </si>
   <si>
-    <t xml:space="preserve">Wu et al , 2017 - Tool wear prediction </t>
+    <t xml:space="preserve">1.Morariu et al 2020 - using LSTM in a timeseries prediction analysis of forecasted energy data                    2. Lepeniotic et al , 2020 - uses LSTM to make predictions on production processes using time series data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature review topics </t>
+  </si>
+  <si>
+    <t>History and evolution of beverage batch manufacturing.</t>
+  </si>
+  <si>
+    <t>Importance and impact of efficient production in the beverage industry.</t>
+  </si>
+  <si>
+    <t>Downtimes in Beverage Batch Manufacturing</t>
+  </si>
+  <si>
+    <t>Definition and types of downtimes in the manufacturing process.</t>
+  </si>
+  <si>
+    <t>Factors contributing to production downtimes: Mixing and Deaeration.</t>
+  </si>
+  <si>
+    <t>Impact of downtimes on production efficiency and product quality.</t>
+  </si>
+  <si>
+    <t>Current methods and techniques employed to quantify and monitor downtimes.</t>
+  </si>
+  <si>
+    <t>Machine Learning in Manufacturing: An Introduction</t>
+  </si>
+  <si>
+    <t>Historical application of machine learning in manufacturing.</t>
+  </si>
+  <si>
+    <t>Advantages and potential challenges of implementing machine learning.</t>
+  </si>
+  <si>
+    <t>Efficiency-driven Analysis of Batch Data</t>
+  </si>
+  <si>
+    <t>The significance of batch data in manufacturing optimization.</t>
+  </si>
+  <si>
+    <t>Existing methodologies and tools for batch data analysis.</t>
+  </si>
+  <si>
+    <t>Role of machine learning in batch data analysis.</t>
+  </si>
+  <si>
+    <t>Case studies showcasing the impact of efficient batch data analysis.</t>
+  </si>
+  <si>
+    <t>Predictive Modeling in Manufacturing</t>
+  </si>
+  <si>
+    <t>Basics of predictive modeling and its relevance in manufacturing.</t>
+  </si>
+  <si>
+    <t>Advantages of predictive modeling for manufacturing optimization.</t>
+  </si>
+  <si>
+    <t>Existing predictive models focusing on production downtimes.</t>
+  </si>
+  <si>
+    <t>Enhanced Scheduling through Predictive Insights</t>
+  </si>
+  <si>
+    <t>Importance of scheduling in manufacturing.</t>
+  </si>
+  <si>
+    <t>Traditional vs. predictive-based scheduling: A comparison.</t>
+  </si>
+  <si>
+    <t>How machine learning can revolutionize production scheduling.</t>
+  </si>
+  <si>
+    <t>Benefits and potential challenges of predictive scheduling.</t>
+  </si>
+  <si>
+    <t>Investment Considerations in Machine Learning for Manufacturing</t>
+  </si>
+  <si>
+    <t>Cost-benefit analysis of implementing machine learning techniques.</t>
+  </si>
+  <si>
+    <t>ROI (Return on Investment) from efficiency improvements.</t>
+  </si>
+  <si>
+    <t>Case studies on successful machine learning investments in manufacturing.</t>
+  </si>
+  <si>
+    <t>Each heading would delve deep into the respective area, providing a comprehensive understanding of the topic, and setting the stage for the research objectives to be explored and addressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview of Beverage Batch Manufacturing </t>
+  </si>
+  <si>
+    <t>Farahani et al , 2021 looking at quality monitoring of injection molding process using regression models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importance of hyperparater tuning </t>
+  </si>
+  <si>
+    <t>Schuh et al 2019  - predictions of order specific times                           Farahani et al , 2021 , as above in Ridge regression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente Garcia et al , 2019- Predicting product quality in a tubing extrusion process  Farahani et al , 2021  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using a muliple linear regression between more than one independent. Metrics observed RMSE and MAE. </t>
   </si>
   <si>
     <r>
-      <t>accuracy of regression (e.g., MSE and </t>
+      <t>1.accuracy of regression (e.g., MSE and </t>
     </r>
     <r>
       <rPr>
@@ -393,104 +496,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>) and training time</t>
+      <t xml:space="preserve">) and training time         2. The trained datasets were in a 80:20 ratio using a 5 fold validation. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1.Morariu et al 2020 - using LSTM in a timeseries prediction analysis of forecasted energy data                    2. Lepeniotic et al , 2020 - uses LSTM to make predictions on production processes using time series data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature review topics </t>
-  </si>
-  <si>
-    <t>Overview of Beverage Batch Manufacturing</t>
-  </si>
-  <si>
-    <t>History and evolution of beverage batch manufacturing.</t>
-  </si>
-  <si>
-    <t>Importance and impact of efficient production in the beverage industry.</t>
-  </si>
-  <si>
-    <t>Downtimes in Beverage Batch Manufacturing</t>
-  </si>
-  <si>
-    <t>Definition and types of downtimes in the manufacturing process.</t>
-  </si>
-  <si>
-    <t>Factors contributing to production downtimes: Mixing and Deaeration.</t>
-  </si>
-  <si>
-    <t>Impact of downtimes on production efficiency and product quality.</t>
-  </si>
-  <si>
-    <t>Current methods and techniques employed to quantify and monitor downtimes.</t>
-  </si>
-  <si>
-    <t>Machine Learning in Manufacturing: An Introduction</t>
-  </si>
-  <si>
-    <t>Historical application of machine learning in manufacturing.</t>
-  </si>
-  <si>
-    <t>Advantages and potential challenges of implementing machine learning.</t>
-  </si>
-  <si>
-    <t>Efficiency-driven Analysis of Batch Data</t>
-  </si>
-  <si>
-    <t>The significance of batch data in manufacturing optimization.</t>
-  </si>
-  <si>
-    <t>Existing methodologies and tools for batch data analysis.</t>
-  </si>
-  <si>
-    <t>Role of machine learning in batch data analysis.</t>
-  </si>
-  <si>
-    <t>Case studies showcasing the impact of efficient batch data analysis.</t>
-  </si>
-  <si>
-    <t>Predictive Modeling in Manufacturing</t>
-  </si>
-  <si>
-    <t>Basics of predictive modeling and its relevance in manufacturing.</t>
-  </si>
-  <si>
-    <t>Advantages of predictive modeling for manufacturing optimization.</t>
-  </si>
-  <si>
-    <t>Existing predictive models focusing on production downtimes.</t>
-  </si>
-  <si>
-    <t>Enhanced Scheduling through Predictive Insights</t>
-  </si>
-  <si>
-    <t>Importance of scheduling in manufacturing.</t>
-  </si>
-  <si>
-    <t>Traditional vs. predictive-based scheduling: A comparison.</t>
-  </si>
-  <si>
-    <t>How machine learning can revolutionize production scheduling.</t>
-  </si>
-  <si>
-    <t>Benefits and potential challenges of predictive scheduling.</t>
-  </si>
-  <si>
-    <t>Investment Considerations in Machine Learning for Manufacturing</t>
-  </si>
-  <si>
-    <t>Cost-benefit analysis of implementing machine learning techniques.</t>
-  </si>
-  <si>
-    <t>ROI (Return on Investment) from efficiency improvements.</t>
-  </si>
-  <si>
-    <t>Case studies on successful machine learning investments in manufacturing.</t>
-  </si>
-  <si>
-    <t>Each heading would delve deep into the respective area, providing a comprehensive understanding of the topic, and setting the stage for the research objectives to be explored and addressed.</t>
+    <t>1.Wu et al , 2017 - Tool wear prediction.                          2.Klein et al , 2020 - Quality prediction of honed bores.</t>
+  </si>
+  <si>
+    <t>Fang el al , 2019 - time predictions on a job completion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compared to other models using a 5 foldcross validation </t>
+  </si>
+  <si>
+    <t>Geltz et al , predictive machine maintenance</t>
+  </si>
+  <si>
+    <t>Not enough data to train the model in . Poor results using neural networks. Large dataset work better for NN</t>
   </si>
 </sst>
 </file>
@@ -614,9 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -647,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E357D64F-509E-4EAC-AD07-3FCF5C084410}">
   <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,172 +1011,176 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>105</v>
+      <c r="I4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="123" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>108</v>
+      <c r="I7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1163,28 +1189,28 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1195,26 +1221,26 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1223,29 +1249,29 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>104</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1255,86 +1281,94 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1343,28 +1377,28 @@
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="11"/>
+      <c r="I15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1380,186 +1414,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DEEED1-A43A-48F3-8770-4B82C03B6314}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-    </row>
-    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-    </row>
-    <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-    </row>
-    <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-    </row>
-    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Overview of Machine Models and their characteristics .xlsx
+++ b/Overview of Machine Models and their characteristics .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0687AA-6EB5-4231-AF2C-047A45095629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C1AF82-61D1-4D22-9DEB-F63AB823E4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{834F1B6D-B2BB-4840-96D9-0FD1FD08577E}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>Model Type</t>
   </si>
@@ -154,9 +153,6 @@
     <t>Can prevent overfitting; handles multicollinearity</t>
   </si>
   <si>
-    <t>Does not perform variable selection.</t>
-  </si>
-  <si>
     <t>Fast, slightly slower than vanilla linear regression.</t>
   </si>
   <si>
@@ -337,27 +333,6 @@
     <t>Tree structure that splits data based on feature thresholds. Good ability to deal with various data types and its tolerance to irrelevant attributes.</t>
   </si>
   <si>
-    <t>Highlights</t>
-  </si>
-  <si>
-    <t>Used MAE as the metric and a 10 fold CV. Results were improved by feature enginneering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicente Garcia et al , 2019- Predicting product quality in a tubing extrusion process </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVR - using a linear function to map the input data to a high dimensional space. Using various kernels , linear </t>
-  </si>
-  <si>
-    <t>used weight functions. Metrics observed RMSE and MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Vicente Garcia et al , 2019- Predicting product quality in a tubing extrusion process. 2.Smola et al , 2003 - SVR tutorial  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Morariu et al 2020 - using LSTM in a timeseries prediction analysis of forecasted energy data                    2. Lepeniotic et al , 2020 - uses LSTM to make predictions on production processes using time series data </t>
-  </si>
-  <si>
     <t xml:space="preserve">Literature review topics </t>
   </si>
   <si>
@@ -451,84 +426,48 @@
     <t xml:space="preserve">Overview of Beverage Batch Manufacturing </t>
   </si>
   <si>
-    <t>Farahani et al , 2021 looking at quality monitoring of injection molding process using regression models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">importance of hyperparater tuning </t>
-  </si>
-  <si>
-    <t>Schuh et al 2019  - predictions of order specific times                           Farahani et al , 2021 , as above in Ridge regression.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicente Garcia et al , 2019- Predicting product quality in a tubing extrusion process  Farahani et al , 2021  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">using a muliple linear regression between more than one independent. Metrics observed RMSE and MAE. </t>
-  </si>
-  <si>
-    <r>
-      <t>1.accuracy of regression (e.g., MSE and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1A1A1A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF1A1A1A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1A1A1A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) and training time         2. The trained datasets were in a 80:20 ratio using a 5 fold validation. </t>
-    </r>
-  </si>
-  <si>
-    <t>1.Wu et al , 2017 - Tool wear prediction.                          2.Klein et al , 2020 - Quality prediction of honed bores.</t>
-  </si>
-  <si>
-    <t>Fang el al , 2019 - time predictions on a job completion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compared to other models using a 5 foldcross validation </t>
-  </si>
-  <si>
-    <t>Geltz et al , predictive machine maintenance</t>
-  </si>
-  <si>
-    <t>Not enough data to train the model in . Poor results using neural networks. Large dataset work better for NN</t>
+    <t xml:space="preserve">Vicente Garcia et al , 2019-   Farahani et al , 2021  </t>
+  </si>
+  <si>
+    <t>Farahani et al , 2021</t>
+  </si>
+  <si>
+    <t>Schuh et al 2019                           Farahani et al , 2021 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Vicente Garcia et al , 2019 2.Smola et al , 2003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente Garcia et al , 2019- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang el al , 2019 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geltz et al , </t>
+  </si>
+  <si>
+    <t>1.Morariu et al 2020 -                  2. Lepeniotic et al , 2020 -</t>
+  </si>
+  <si>
+    <t>1.Wu et al , 2017               2.Klein et al , 2020                     3. Kadam et al</t>
+  </si>
+  <si>
+    <t>Does not perform variable selection. Can be slow to real time predictions</t>
+  </si>
+  <si>
+    <t>Mohri et al , 2018</t>
+  </si>
+  <si>
+    <t>Singh et al , 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -555,30 +494,29 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -622,53 +560,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,421 +919,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E357D64F-509E-4EAC-AD07-3FCF5C084410}">
-  <dimension ref="A3:J15"/>
+  <dimension ref="A3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I14" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="10"/>
+      <c r="I15" s="13" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1422,178 +1330,178 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
